--- a/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-24,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>-35,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-31,01%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-12,79%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 41,89</t>
+          <t>-8,72; 2,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 1,2</t>
+          <t>-3,4; 3,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 28,91</t>
+          <t>-13,29; 3,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 109,33</t>
+          <t>-78,42; 119,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,65; -0,33</t>
+          <t>-50,18; 133,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,83; 66,27</t>
+          <t>-72,07; 118,7</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,7</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-42,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 17,41</t>
+          <t>-2,34; 7,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,71; -1,99</t>
+          <t>-12,24; -2,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 21,19</t>
+          <t>-3,68; 4,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 43,73</t>
+          <t>-31,7; 188,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,06; -3,57</t>
+          <t>-61,93; -17,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 56,26</t>
+          <t>-32,76; 64,73</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>42,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>12,29%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 31,1</t>
+          <t>-1,84; 6,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 27,21</t>
+          <t>-1,08; 8,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 18,77</t>
+          <t>-2,56; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 71,79</t>
+          <t>-24,58; 170,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 82,82</t>
+          <t>-13,73; 162,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 82,04</t>
+          <t>-34,14; 84,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,36</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 17,2</t>
+          <t>-2,37; 4,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 0,11</t>
+          <t>-3,41; 5,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 14,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 38,24</t>
+          <t>-29,46; 94,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 0,1</t>
+          <t>-33,9; 95,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 39,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-11,16%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 3,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 0,88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 2,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 69,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-30,65; 10,78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-30,92; 44,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,39</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-35,55%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-12,79%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.224527335979225</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.255380780502286</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.656197619483867</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2797744556342441</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1035157711653727</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.0101380854541389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 2,72</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 3,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,29; 3,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-78,42; 119,21</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-50,18; 133,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-72,07; 118,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.637213578753579</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-36.389670616695</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-36.15774504231619</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.7465421819488666</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4179314637603427</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4299131880100852</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.320920469585817</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.5889595636392</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>27.49706302148655</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.400499778594929</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.4702298878396505</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6481676582175089</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-6,82</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>35,99%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-42,73%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 7,8</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,24; -2,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 4,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-31,7; 188,75</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-61,93; -17,34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-32,76; 64,73</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.614891088275878</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-21.50188954788689</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.820440935406586</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3387289997104519</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2741690538247344</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1466516288717706</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>42,07%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>56,13%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.394668490711673</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-35.43439032876407</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.883231429066251</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3507066018703394</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4257259980617202</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1382458980329316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 6,74</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 8,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 3,38</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,58; 170,15</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; 162,03</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-34,14; 84,84</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.760867262191994</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-6.676348704890163</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.05319266503944</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.425517673698129</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.09176782756930496</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5692664194040966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>24,78%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.448577618853036</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.368074907643164</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.433015709262939</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1647580619334992</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1890285939677789</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1818007058397296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 4,59</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 5,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-29,46; 94,91</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-33,9; 95,48</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.319700134980859</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.902585774720235</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.018189952991435</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4482107647255885</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1399676015949461</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2283426561750778</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.408498982335733</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>30.06037898794952</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.11354177934349</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.474311674936789</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.8060444709557298</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.9190228401418677</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>23,92%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-11,16%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 3,6</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 0,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 2,59</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 69,82</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 10,78</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-30,92; 44,0</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.368807829393645</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-10.80128901662512</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.521554020161812</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1684676508857867</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1558915734713559</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1280001018516773</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.309842741616754</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-20.80380590032113</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.733927952291913</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2272269821331073</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2824774152640954</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.09220289368143081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.821843755328143</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.014299340706158</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.88987844873843</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7979747086157478</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.01674749847954176</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4342076652418353</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
